--- a/export.xlsx
+++ b/export.xlsx
@@ -76,9 +76,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -104,9 +113,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,246 +425,253 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>2019</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="2">
         <v>250000</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>2019</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="2">
         <v>110000</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2019</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="2">
         <v>305000</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>2019</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C5" s="2">
         <v>345000</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>2019</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C6" s="2">
         <v>35000</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>2019</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C7" s="2">
         <v>95000</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>2019</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C8" s="2">
         <v>460000</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>2019</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="2">
         <v>640000</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>2019</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C10" s="2">
         <v>80000</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11">
-        <v>2019</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C11" s="2">
         <v>475000</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>2020</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>700000</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>2020</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>510000</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="2">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
         <v>2020</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>100000</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
